--- a/src/test/resources/TestDataSheet/TestData_API_SYSTEM.xlsx
+++ b/src/test/resources/TestDataSheet/TestData_API_SYSTEM.xlsx
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
